--- a/aa.xlsx
+++ b/aa.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="205">
   <si>
     <t>الهه</t>
   </si>
@@ -953,6 +953,36 @@
   </si>
   <si>
     <t>تماس بگیرید</t>
+  </si>
+  <si>
+    <t>Commuting Conjugacy Class Graph of The Generalized</t>
+  </si>
+  <si>
+    <t>Dicyclic Group</t>
+  </si>
+  <si>
+    <t>سلحشور</t>
+  </si>
+  <si>
+    <t>آزاد سواد کوه</t>
+  </si>
+  <si>
+    <t>گروه</t>
+  </si>
+  <si>
+    <t>MA.Salahshour@iau.ac.ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیام نور </t>
+  </si>
+  <si>
+    <t>قدیمی</t>
+  </si>
+  <si>
+    <t>کریم</t>
+  </si>
+  <si>
+    <t>A way to construction strong d-algebras</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1908,7 +1938,7 @@
         <v>132</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2214,7 +2244,7 @@
         <v>194</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2251,7 +2281,7 @@
         <v>108</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>4</v>
@@ -2700,6 +2730,54 @@
       </c>
       <c r="H45" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46">
+        <v>550000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="G47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48">
+        <v>550000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
